--- a/greenplum/datawarehouse/QA/medicaid/dw_staging/outputs/dw-claim-header-spotcheck.xlsx
+++ b/greenplum/datawarehouse/QA/medicaid/dw_staging/outputs/dw-claim-header-spotcheck.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Mismatches found in claim_header tables between SPC and dw_staging</t>
   </si>
   <si>
-    <t xml:space="preserve">Run time: 2023-09-13 14:53:28</t>
+    <t xml:space="preserve">Run time: 2024-05-28 17:51:20</t>
   </si>
   <si>
     <t xml:space="preserve">Rows sampled per SPC table: 5000</t>
@@ -56,7 +56,13 @@
     <t xml:space="preserve">perf_at_provider_mismatches</t>
   </si>
   <si>
-    <t xml:space="preserve">provider_type_mismatches</t>
+    <t xml:space="preserve">provider_taxonomy_mismatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provider_specialty_mismatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing_provider_type_mismatches</t>
   </si>
   <si>
     <t xml:space="preserve">rows_checked</t>
@@ -87,9 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10071</t>
   </si>
   <si>
     <t xml:space="preserve">HTW</t>
@@ -441,9 +444,11 @@
     <col min="9" max="9" width="23.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="24.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="27.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="24.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="12.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="9.15" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="28.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="29.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="32.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="12.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="9.15" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,338 +506,392 @@
       <c r="M5" t="s">
         <v>15</v>
       </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
